--- a/単体テスト/ユーザ情報画面.xlsx
+++ b/単体テスト/ユーザ情報画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ree\Desktop\employee_info_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ree\Desktop\employee_info_project\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BAC396-0422-49FF-94FD-D52EEE26C01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A82816C-ADB5-4AD1-9CFF-86913C75AB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,12 +440,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員情報画面</t>
+    <t>社員管理システム</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="2" eb="6">
-      <t>ジョウホウガメン</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -762,18 +762,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,15 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1184,25 +1184,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1215,23 +1215,23 @@
       <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1267,31 +1267,31 @@
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="20" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14">
@@ -1307,343 +1307,343 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
       <c r="A6" s="16">
         <v>2</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="11.25" customHeight="1">
       <c r="A7" s="16">
         <v>3</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="11.25" customHeight="1">
       <c r="A8" s="18">
         <v>4</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="11.25" customHeight="1">
       <c r="A9" s="18">
         <v>5</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1">
       <c r="A10" s="18">
         <v>6</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="18">
         <v>7</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="18">
         <v>8</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="18">
         <v>9</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="18">
         <v>10</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="18">
         <v>11</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="18">
         <v>12</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="18">
         <v>13</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="18">
         <v>14</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="18">
@@ -1652,736 +1652,841 @@
       <c r="B19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="18">
         <v>16</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="18">
         <v>17</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="18">
         <v>18</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="18">
         <v>19</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="18">
         <v>20</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="18">
         <v>21</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="18">
         <v>22</v>
       </c>
       <c r="B26" s="17"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="31" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="18">
         <v>23</v>
       </c>
       <c r="B27" s="17"/>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="31" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="1:17" ht="11.25" customHeight="1">
       <c r="A28" s="18">
         <v>24</v>
       </c>
       <c r="B28" s="17"/>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="31" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="11.25" customHeight="1">
       <c r="A29" s="18">
         <v>25</v>
       </c>
       <c r="B29" s="17"/>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="31" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="18">
         <v>26</v>
       </c>
       <c r="B30" s="17"/>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="31" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="18">
         <v>27</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="31" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="18">
         <v>28</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="18">
         <v>29</v>
       </c>
       <c r="B33" s="17"/>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="31" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:17" ht="11.25" customHeight="1">
       <c r="A34" s="18">
         <v>30</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="31" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="33"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="11.25" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="11.25" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:17" ht="11.25" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="39" spans="1:17" ht="11.25" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="1:17" ht="11.25" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
     </row>
     <row r="41" spans="1:17" ht="11.25" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
     </row>
     <row r="42" spans="1:17" ht="11.25" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
     </row>
     <row r="43" spans="1:17" ht="11.25" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
     </row>
     <row r="44" spans="1:17" ht="11.25" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
     </row>
     <row r="45" spans="1:17" ht="11.25" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
     </row>
     <row r="46" spans="1:17" ht="11.25" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
     </row>
     <row r="47" spans="1:17" ht="11.25" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
     </row>
     <row r="49" spans="1:17" ht="11.25" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="1:17" ht="11.25" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
     </row>
     <row r="51" spans="1:17" ht="11.25" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="H21:M21"/>
@@ -2405,122 +2510,17 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H22:M22"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
